--- a/AAPL/AAPL_DCF (Quarterly).xlsx
+++ b/AAPL/AAPL_DCF (Quarterly).xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nanayawakyea/Desktop/PFV-DCF-Valuations/AAPL/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F00F148F-500C-1A4B-BFCE-9684D3E53900}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8755A241-9EAB-A94D-9BB8-D9695D8E334F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{63EC129F-FAE3-7B4F-8024-D78F97EC6E89}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" activeTab="1" xr2:uid="{63EC129F-FAE3-7B4F-8024-D78F97EC6E89}"/>
   </bookViews>
   <sheets>
     <sheet name="AAPL" sheetId="2" r:id="rId1"/>
-    <sheet name="ABNB" sheetId="1" r:id="rId2"/>
+    <sheet name="ABNB (Ignore)" sheetId="1" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="CIQWBGuid" hidden="1">"60aadba8-9c5e-41de-9443-b6070dc7b523"</definedName>
@@ -4268,7 +4268,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01C9B030-6029-4447-BB99-7A7F8376F45B}">
   <dimension ref="B1:AG147"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="L1" zoomScale="109" zoomScaleNormal="192" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="L1" zoomScale="109" zoomScaleNormal="192" workbookViewId="0">
       <selection activeCell="Q116" sqref="Q116"/>
     </sheetView>
   </sheetViews>
@@ -4333,7 +4333,7 @@
     <row r="3" spans="2:23">
       <c r="B3" s="121">
         <f ca="1" xml:space="preserve"> TODAY()</f>
-        <v>44773</v>
+        <v>44774</v>
       </c>
       <c r="E3" s="83"/>
       <c r="F3" s="83"/>
@@ -9345,7 +9345,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84CF32D2-0C98-3A4B-A2DF-3374752AD328}">
   <dimension ref="B1:AT1035"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="J44" zoomScale="138" zoomScaleNormal="150" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="75" zoomScaleNormal="150" workbookViewId="0">
       <selection activeCell="S62" sqref="S62"/>
     </sheetView>
   </sheetViews>
@@ -9469,7 +9469,7 @@
       <c r="D3" s="2"/>
       <c r="E3" s="7">
         <f ca="1">TODAY()</f>
-        <v>44773</v>
+        <v>44774</v>
       </c>
       <c r="H3" s="2"/>
       <c r="I3" s="3" t="s">
